--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F923DB-DFB8-4A6F-832F-A5C5B0CA65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{904478B4-43B3-40CB-8EEA-5143CC044707}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="8" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="VT-SaleVoid-DualCF-Generic" sheetId="1" r:id="rId1"/>
-    <sheet name="VT-SaleVoid-NoCF-Generic" sheetId="2" r:id="rId2"/>
-    <sheet name="VT-SaleVoid-SingleCF-Generic" sheetId="3" r:id="rId3"/>
-    <sheet name="VT-SaleCredit-DualCF-Generic" sheetId="5" r:id="rId4"/>
-    <sheet name="VT-SaleCredit-NoCF-Generic" sheetId="6" r:id="rId5"/>
-    <sheet name="VT-SaleCredit-SingleCF-Generic" sheetId="7" r:id="rId6"/>
+    <sheet name="VT-SaleVoid-DualCF-Generic" r:id="rId1" sheetId="1"/>
+    <sheet name="VT-SaleVoid-NoCF-Generic" r:id="rId2" sheetId="2"/>
+    <sheet name="VT-SaleVoid-SingleCF-Generic" r:id="rId3" sheetId="3"/>
+    <sheet name="VT-SaleCredit-DualCF-Generic" r:id="rId4" sheetId="5"/>
+    <sheet name="VT-SaleCredit-NoCF-Generic" r:id="rId5" sheetId="6"/>
+    <sheet name="VT-SaleCredit-SingleCF-Generic" r:id="rId6" sheetId="7"/>
+    <sheet name="VT-AuthCapCredit-Generic" r:id="rId7" sheetId="8"/>
+    <sheet name="VT-AuthCapVoid-Generic" r:id="rId8" sheetId="9"/>
+    <sheet name="VT-ManualAuthCapture-Generic" r:id="rId9" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="111">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -291,12 +294,85 @@
   </si>
   <si>
     <t>144963539</t>
+  </si>
+  <si>
+    <t>CaptureAmount</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>1478 Jhatka Palace</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 18:31:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 18:37:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 18:43:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 18:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 18:55:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:30:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:36:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:41:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:49:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:54:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 21:00:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 20:40:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:56:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:01:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:07:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:11:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:17:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:21:27 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,19 +415,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -368,10 +444,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -406,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -441,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -535,21 +611,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -618,15 +694,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -634,7 +710,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -741,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -838,7 +914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -935,7 +1011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1032,7 +1108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1130,7 +1206,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1138,8 +1214,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E5B8F-F388-454B-9312-37D5E8A239CA}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E5B8F-F388-454B-9312-37D5E8A239CA}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AE4" sqref="AE4"/>
@@ -1147,7 +1223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1254,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1351,7 +1427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1448,7 +1524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1545,7 +1621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1643,13 +1719,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14398818-C378-4625-9C7B-8B7A60808E50}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14398818-C378-4625-9C7B-8B7A60808E50}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
@@ -1657,7 +1733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1764,7 +1840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1861,7 +1937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1958,7 +2034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2055,7 +2131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2153,13 +2229,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80835E-80C2-4B5E-A27D-BEE82C4EA194}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80835E-80C2-4B5E-A27D-BEE82C4EA194}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AH5" sqref="AH5"/>
@@ -2167,7 +2243,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2274,7 +2350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2371,7 +2447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2468,7 +2544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2565,7 +2641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2663,13 +2739,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA27D4-E8CC-4524-89F3-92615FB855D9}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA27D4-E8CC-4524-89F3-92615FB855D9}">
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AI5" sqref="AI5"/>
@@ -2677,7 +2753,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,7 +2860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2881,7 +2957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2978,7 +3054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3075,7 +3151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3173,21 +3249,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15419439-C550-4DF2-A35F-21D8EAD8595F}">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15419439-C550-4DF2-A35F-21D8EAD8595F}">
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -3297,7 +3373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3397,7 +3473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3497,7 +3573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3597,7 +3673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3698,6 +3774,2233 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1DA7C8-561B-4DB6-AEC9-913575D04D9C}">
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F298BB-BA96-478C-B434-E08D216C7BCB}">
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE28CED-02AF-4422-B87F-90E9A0FAAB78}">
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{904478B4-43B3-40CB-8EEA-5143CC044707}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2A60EAC5-9211-4C7F-9C9B-2C0D27123813}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="7" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VT-SaleVoid-DualCF-Generic" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="641">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -305,67 +305,1657 @@
     <t>1478 Jhatka Palace</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:30:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:36:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:41:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:49:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 20:54:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 04 21:00:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 20:40:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:56:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:01:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:07:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:11:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:17:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 23:21:27 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 18:31:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 18:37:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 18:43:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 18:49:13 IST 2025</t>
+    <t>Thu Feb 27 19:41:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 19:45:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 19:48:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 19:51:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 22:57:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 22:59:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:01:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:04:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:07:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:10:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:11:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:13:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:18:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:21:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:23:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:27:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:29:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:32:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:35:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:36:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:38:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:40:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:43:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:45:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:48:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:50:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:51:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:54:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:56:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 23:59:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:02:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:03:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:05:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:07:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:09:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:12:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:15:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:16:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:23:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:27:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:29:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:31:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:33:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:40:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 00:42:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:55:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:57:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 02:59:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:01:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:03:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:04:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:06:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:08:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:12:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:14:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:15:54 IST 2025</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Tue Feb 04 18:55:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:30:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:36:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:41:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:49:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:54:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 21:00:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 20:40:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:56:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:01:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:07:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:11:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:17:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:21:27 IST 2025</t>
+    <t>Fri Feb 28 03:17:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:21:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:23:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:39:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:45:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:47:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:48:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:50:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:51:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:53:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:54:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:55:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:57:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:58:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 03:59:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:02:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:03:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:04:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:06:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:07:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:08:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:09:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:11:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:12:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:13:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:14:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:15:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:17:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:18:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:21:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:22:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:23:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:25:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:26:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:27:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:29:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:31:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:32:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:34:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:35:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:36:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:40:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:41:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:45:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:46:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:47:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:51:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:52:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:54:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:56:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:57:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 04:58:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:00:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:02:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:04:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:05:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:06:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:07:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:10:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:12:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:14:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:15:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:16:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:18:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:20:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:21:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:23:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:25:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:26:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:27:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:29:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:31:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:34:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:35:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:37:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:38:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:39:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:40:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:41:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:42:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:44:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:45:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:46:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:48:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:49:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:50:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:51:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:55:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 05:57:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:13:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:15:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:18:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:20:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:22:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:23:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:26:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:28:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:30:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:32:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:34:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:37:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:43:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:45:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:47:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:49:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:51:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:53:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:55:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 08:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:02:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:03:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:05:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:07:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:10:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:12:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:14:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:15:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:17:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:22:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:24:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:27:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:29:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:32:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:35:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:37:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:38:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:39:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:42:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:44:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:46:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:48:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 09:49:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 11:59:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:01:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:04:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:10:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:12:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:14:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:16:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:18:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:19:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:21:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:23:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:25:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:27:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:31:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:33:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:34:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:36:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:38:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:40:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:44:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:46:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:48:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:50:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:51:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:53:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:54:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:55:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:56:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:58:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 12:59:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:01:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:04:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:05:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:06:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:07:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:10:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:12:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:13:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:14:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:15:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:17:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:18:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:19:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:20:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:22:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:23:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:24:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:26:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:27:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:29:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:31:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:32:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:34:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:35:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:36:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:40:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:41:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:45:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:47:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:48:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:49:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:50:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:51:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:54:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:57:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 13:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:00:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:01:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:02:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:03:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:08:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:09:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:10:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:11:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:13:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:14:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:15:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:17:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:18:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:20:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:21:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:22:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:24:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:25:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:26:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:28:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:31:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:32:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:33:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:34:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:36:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:37:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:38:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:40:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:41:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:43:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:44:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:45:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:47:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 14:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:38:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:41:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:43:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:46:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:50:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:53:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:56:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 21:59:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:03:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:06:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:46:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:48:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:52:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:56:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 22:58:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:01:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:04:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:05:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:06:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:07:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:09:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:11:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:13:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:14:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:15:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:16:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:17:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:18:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:22:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:25:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 05 23:30:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:44:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:47:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:50:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:52:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:56:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 00:58:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:00:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:05:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:07:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:08:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:45:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:47:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:50:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:52:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:53:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:55:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:57:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 01:58:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:00:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:02:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:03:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:05:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:06:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:07:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:09:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:11:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:12:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:14:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:15:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:17:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:18:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:21:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:23:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:25:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:26:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:28:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 02:29:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:04:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:06:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:08:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:09:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:11:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 02:13:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:10:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:11:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:17:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 04:19:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:06:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:08:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:10:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:11:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:51:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:52:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 19:53:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 20:52:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 20:54:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 20:57:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:05:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:08:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:13:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:15:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 21:17:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:31:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:35:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:37:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:38:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:40:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:43:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:45:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:47:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:49:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 22:51:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:29:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:31:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:33:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:35:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:37:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:39:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:41:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:42:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:43:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:45:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:49:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:51:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:52:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:54:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:55:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:57:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 13 23:59:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:00:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:02:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:03:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:04:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:05:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:06:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:08:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:09:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:11:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:13:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 00:14:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 07:54:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 07:56:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 07:58:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 07:59:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:01:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:02:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:04:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:06:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:11:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:14:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:54:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:56:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:57:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 08:59:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:03:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:06:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:08:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:09:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:11:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:12:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:13:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:14:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:16:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:17:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:18:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:19:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:21:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:22:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:27:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:29:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:31:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:33:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:34:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 14 09:35:35 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -818,8 +2408,12 @@
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>633</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -915,8 +2509,12 @@
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>634</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -1012,8 +2610,12 @@
       </c>
     </row>
     <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -1109,8 +2711,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -1841,8 +3447,12 @@
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>637</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -1938,8 +3548,12 @@
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>638</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -2035,8 +3649,12 @@
       </c>
     </row>
     <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>639</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -2132,8 +3750,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>640</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -2351,8 +3973,12 @@
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>617</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -2448,8 +4074,12 @@
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -2545,8 +4175,12 @@
       </c>
     </row>
     <row ht="57.6" r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>619</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -2642,8 +4276,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>620</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -2861,8 +4499,12 @@
       </c>
     </row>
     <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>621</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -2958,8 +4600,12 @@
       </c>
     </row>
     <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -3055,8 +4701,12 @@
       </c>
     </row>
     <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>623</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -3152,8 +4802,12 @@
       </c>
     </row>
     <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -3374,8 +5028,12 @@
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>625</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -3474,8 +5132,12 @@
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -3574,8 +5236,12 @@
       </c>
     </row>
     <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>627</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -3674,8 +5340,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -3900,10 +5570,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>599</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4004,10 +5674,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4108,10 +5778,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>601</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4212,10 +5882,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>602</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4316,10 +5986,10 @@
     </row>
     <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>603</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -4420,10 +6090,10 @@
     </row>
     <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>604</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -4531,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F298BB-BA96-478C-B434-E08D216C7BCB}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4649,10 +6319,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>605</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4753,10 +6423,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>606</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4857,10 +6527,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>607</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4903,7 +6573,7 @@
         <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>40</v>
@@ -4961,10 +6631,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>608</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5065,10 +6735,10 @@
     </row>
     <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>609</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -5111,7 +6781,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>40</v>
@@ -5169,10 +6839,10 @@
     </row>
     <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>610</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -5280,7 +6950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE28CED-02AF-4422-B87F-90E9A0FAAB78}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
@@ -5398,10 +7068,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>611</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5501,8 +7171,12 @@
       </c>
     </row>
     <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>612</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
@@ -5601,8 +7275,12 @@
       </c>
     </row>
     <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
@@ -5701,8 +7379,12 @@
       </c>
     </row>
     <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>614</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -5801,8 +7483,12 @@
       </c>
     </row>
     <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>615</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -5901,8 +7587,12 @@
       </c>
     </row>
     <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>616</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>56</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2A60EAC5-9211-4C7F-9C9B-2C0D27123813}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EA31A2DA-1FEC-4955-94F9-B333621A52FD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VT-SaleVoid-DualCF-Generic" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="140">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -308,1654 +308,151 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Feb 04 20:30:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:36:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:41:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:49:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 20:54:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 04 21:00:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 20:40:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:56:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:01:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:07:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:11:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:17:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 23:21:27 IST 2025</t>
+    <t>Wed Mar 26 01:26:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:28:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:30:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:32:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:33:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:35:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:37:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:40:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:43:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:45:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:47:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:42:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:43:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:44:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:46:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:47:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:50:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:52:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 02:54:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:01:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:02:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:04:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:05:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:06:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:07:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 03:10:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:11:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:13:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:14:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:16:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:17:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 03:18:21 IST 2025</t>
+  </si>
+  <si>
+    <t>ExecuteProd</t>
+  </si>
+  <si>
+    <t>ExecuteDemo</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Thu Feb 27 19:41:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 19:45:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 19:48:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 19:51:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 22:57:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 22:59:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:01:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:04:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:07:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:10:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:11:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:13:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:16:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:18:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:21:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:23:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:27:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:29:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:32:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:35:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:36:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:38:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:40:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:43:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:45:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:48:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:50:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:51:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:54:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:56:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 23:59:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:02:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:03:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:05:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:07:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:09:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:12:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:15:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:16:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:18:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:20:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:23:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:25:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:27:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:29:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:31:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:33:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:35:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:38:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:40:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 00:42:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 02:55:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 02:57:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 02:59:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:01:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:03:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:04:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:06:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:08:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:10:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:12:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:14:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:15:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:17:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:21:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:23:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:25:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:27:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:39:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:41:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:43:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:45:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:47:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:48:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:50:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:51:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:53:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:54:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:55:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:57:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:58:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 03:59:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:01:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:02:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:03:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:04:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:06:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:07:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:08:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:09:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:11:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:12:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:13:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:14:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:15:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:17:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:18:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:19:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:21:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:22:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:23:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:25:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:26:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:27:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:29:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:30:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:31:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:32:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:34:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:35:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:36:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:38:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:40:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:41:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:42:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:43:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:45:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:46:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:47:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:49:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:51:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:52:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:53:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:54:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:56:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:57:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 04:58:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:00:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:02:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:04:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:05:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:06:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:07:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:08:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:10:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:12:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:14:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:15:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:16:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:17:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:18:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:20:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:21:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:23:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:25:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:26:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:27:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:28:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:29:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:31:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:32:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:34:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:35:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:37:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:38:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:39:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:40:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:41:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:42:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:44:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:45:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:46:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:48:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:49:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:50:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:51:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:53:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:54:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:55:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 05:57:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:13:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:15:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:18:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:20:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:22:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:23:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:26:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:28:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:30:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:32:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:34:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:37:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:39:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:41:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:43:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:45:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:47:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:49:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:51:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:53:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:55:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:57:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:00:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:02:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:03:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:05:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:07:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:10:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:12:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:14:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:15:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:17:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:19:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:22:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:24:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:26:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:27:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:29:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:32:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:35:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:37:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:38:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:39:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:42:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:44:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:46:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:48:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 09:49:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 11:59:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:01:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:04:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:06:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:08:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:10:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:12:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:14:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:16:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:18:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:19:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:21:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:23:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:25:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:27:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:29:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:31:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:33:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:34:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:36:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:38:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:40:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:42:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:44:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:45:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:46:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:48:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:50:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:51:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:53:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:54:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:55:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:56:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:58:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 12:59:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:01:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:02:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:04:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:05:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:06:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:07:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:08:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:10:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:12:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:13:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:14:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:15:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:17:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:18:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:19:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:20:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:22:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:23:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:24:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:26:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:27:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:28:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:29:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:31:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:32:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:34:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:35:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:36:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:38:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:39:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:40:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:41:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:42:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:45:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:47:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:48:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:49:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:50:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:51:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:53:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:54:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:56:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:57:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 13:59:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:00:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:01:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:02:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:03:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:05:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:06:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:08:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:09:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:10:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:11:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:13:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:14:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:15:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:17:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:18:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:20:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:21:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:22:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:24:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:25:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:26:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:28:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:29:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:31:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:32:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:33:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:34:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:36:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:37:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:38:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:40:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:41:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:43:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:44:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:45:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:46:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:47:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:48:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 14:50:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:38:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:41:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:43:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:46:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:49:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:50:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:53:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:56:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 21:59:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:01:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:03:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:06:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:46:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:48:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:50:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:52:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:54:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:56:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 22:58:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:00:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:01:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:03:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:04:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:05:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:06:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:07:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:09:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:11:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:13:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:14:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:15:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:16:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:17:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:18:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:20:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:22:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:24:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:25:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:27:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:28:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:29:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 05 23:30:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:44:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:47:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:50:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:52:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:54:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:56:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:58:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:00:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:03:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:05:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:07:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:08:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:45:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:47:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:50:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:52:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:53:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:55:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:57:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 01:58:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:00:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:02:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:03:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:05:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:06:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:07:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:08:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:09:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:11:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:12:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:14:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:15:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:17:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:18:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:19:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:21:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:22:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:23:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:25:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:26:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:28:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 02:29:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:04:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:06:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:08:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:09:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:11:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 02:13:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:10:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:11:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:13:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:15:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:17:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 04:19:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:06:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:08:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:10:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:11:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:49:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:51:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:52:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 19:53:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 20:52:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 20:54:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 20:57:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:05:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:11:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:13:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:15:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 21:17:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:30:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:31:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:33:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:35:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:37:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:38:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:40:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:43:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:45:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:47:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:49:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:51:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:29:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:31:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:33:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:35:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:37:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:39:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:41:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:42:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:43:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:45:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:47:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:49:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:50:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:51:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:52:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:54:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:55:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:57:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 23:59:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:00:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:02:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:03:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:04:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:05:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:06:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:08:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:09:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:11:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:13:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 00:14:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:54:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:56:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:58:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:59:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:01:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:02:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:04:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:06:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:08:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:11:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:13:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:14:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:54:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:56:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:57:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 08:59:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:01:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:03:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:05:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:06:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:08:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:09:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:11:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:12:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:13:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:14:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:16:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:17:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:18:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:19:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:21:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:22:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:23:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:25:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:26:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:27:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:28:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:29:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:31:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:33:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:34:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 09:35:35 IST 2025</t>
+    <t>Thu Apr 03 19:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:55:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:57:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:58:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 20:00:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 20:01:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 20:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 20:04:52 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +909,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2513,7 +1010,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2614,7 +1111,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2715,7 +1212,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -2821,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E5B8F-F388-454B-9312-37D5E8A239CA}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,487 +1337,518 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row ht="43.2" r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row ht="43.2" r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3451,7 +1979,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>637</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3552,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3653,7 +2181,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>639</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -3754,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -3977,7 +2505,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4078,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4179,7 +2707,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4280,7 +2808,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>620</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4503,7 +3031,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4604,7 +3132,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -4705,7 +3233,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4806,7 +3334,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5032,7 +3560,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5136,7 +3664,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -5240,7 +3768,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -5344,7 +3872,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5573,7 +4101,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5677,7 +4205,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -5781,7 +4309,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -5885,7 +4413,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>602</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -5989,7 +4517,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -6093,7 +4621,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>604</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -6199,15 +4727,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F298BB-BA96-478C-B434-E08D216C7BCB}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="21.109375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -6218,726 +4749,747 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row ht="57.6" r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row ht="57.6" r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row ht="57.6" r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row ht="57.6" r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7071,7 +5623,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -7175,7 +5727,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -7279,7 +5831,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -7383,7 +5935,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>614</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -7487,7 +6039,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>615</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -7591,7 +6143,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>616</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="322">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -885,6 +885,120 @@
   </si>
   <si>
     <t>Fri May 02 19:56:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:43:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:44:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:45:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:47:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:50:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:51:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:52:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:52:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:53:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:55:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:56:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:24:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:25:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:25:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:26:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:27:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:28:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:29:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:30:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:31:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:32:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:33:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:34:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:35:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:35:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:36:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:37:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:38:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:39:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:40:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:41:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:42:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:43:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:44:58 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1465,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1449,7 +1563,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1547,7 +1661,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1645,7 +1759,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1876,7 +1990,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1980,7 +2094,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2084,7 +2198,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2188,7 +2302,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2423,7 +2537,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2524,7 +2638,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2625,7 +2739,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2726,7 +2840,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2956,7 +3070,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3054,7 +3168,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3152,7 +3266,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3250,7 +3364,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4004,7 +4118,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4105,7 +4219,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4206,7 +4320,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4307,7 +4421,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4540,7 +4654,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4647,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4754,7 +4868,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
         <v>120</v>
@@ -4861,7 +4975,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -4968,7 +5082,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -5075,7 +5189,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -5314,7 +5428,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5421,7 +5535,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5528,7 +5642,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5635,7 +5749,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5742,7 +5856,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -5849,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6087,7 +6201,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6188,7 +6302,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -6289,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6390,7 +6504,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6491,7 +6605,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -6592,7 +6706,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="420">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -999,6 +999,300 @@
   </si>
   <si>
     <t>Wed May 21 15:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:50:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:53:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:56:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:01:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:03:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:04:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:21:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:29:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:32:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:35:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:33:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:33:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:34:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:35:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:36:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:37:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:37:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:38:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:39:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:40:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:42:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:43:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:44:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:46:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:47:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:51:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:51:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:52:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:52:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:53:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:54:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:55:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:55:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:51:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:55:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:57:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:58:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:59:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 20:00:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 20:01:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:10:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:11:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:12:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:14:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:44:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:44:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:46:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:47:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:48:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:49:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:50:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:51:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:52:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:55:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:55:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:56:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:57:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:58:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:59:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:59:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:01:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:02:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:03:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:52:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:54:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:55:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:56:43 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1759,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1563,7 +1860,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1661,7 +1961,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1759,7 +2062,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1996,7 +2302,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2100,7 +2406,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2204,7 +2510,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2308,7 +2614,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2537,7 +2843,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2638,7 +2944,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2739,7 +3045,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2840,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3070,7 +3376,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3168,7 +3477,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3266,7 +3578,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>392</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3364,7 +3679,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3590,7 +3908,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3689,7 +4007,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3788,7 +4106,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3887,7 +4205,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4118,7 +4436,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4219,7 +4540,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4320,7 +4644,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4421,7 +4748,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4660,7 +4990,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -4767,7 +5097,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -4868,13 +5198,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -4981,7 +5311,7 @@
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -5088,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -5195,7 +5525,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -5428,13 +5758,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5535,13 +5865,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -5642,13 +5972,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -5749,13 +6079,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -5856,13 +6186,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -5963,13 +6293,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>419</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -6201,7 +6531,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6302,7 +6635,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -6403,7 +6739,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6504,7 +6843,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>387</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6605,7 +6947,10 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>388</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -6706,7 +7051,10 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>389</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="424">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -999,6 +999,312 @@
   </si>
   <si>
     <t>Wed May 21 15:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:50:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:53:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 18:56:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:01:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:03:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:04:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:21:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:29:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:32:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:35:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jun 16 19:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:33:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:33:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:34:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:35:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:36:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:37:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:37:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:38:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:39:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:40:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:42:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:43:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:44:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:46:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:47:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:51:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:51:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:52:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:52:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:53:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:54:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:55:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 18:55:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:51:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:55:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:57:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:58:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 19:59:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 20:00:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 17 20:01:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:08:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:10:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:11:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:12:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:14:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:44:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:44:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:46:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:47:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:48:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:49:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:50:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:51:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:52:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:55:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:55:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:56:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:57:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:58:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:59:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:59:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:01:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:02:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:03:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:52:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:54:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:55:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:56:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:01:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 21:03:21 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1771,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -1563,7 +1872,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -1661,7 +1973,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1759,7 +2074,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1996,7 +2314,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2100,7 +2418,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2204,7 +2522,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2308,7 +2626,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2537,7 +2855,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2638,7 +2956,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2739,7 +3057,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2840,7 +3158,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3070,7 +3388,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3168,7 +3489,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3266,7 +3590,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>392</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3364,7 +3691,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3590,7 +3920,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3689,7 +4019,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3788,7 +4118,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3887,7 +4217,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4118,7 +4448,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -4219,7 +4552,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4320,7 +4656,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4421,7 +4760,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4660,7 +5002,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -4767,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -4868,13 +5210,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -4981,7 +5323,7 @@
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -5088,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -5195,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -5428,13 +5770,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5535,13 +5877,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>421</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -5642,13 +5984,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>422</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -5749,13 +6091,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -5856,13 +6198,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -5963,13 +6305,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -6201,7 +6543,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6302,7 +6647,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -6403,7 +6751,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6504,7 +6855,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>387</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6605,7 +6959,10 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>388</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -6706,7 +7063,10 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>389</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="608">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -1305,6 +1305,558 @@
   </si>
   <si>
     <t>Mon Aug 04 21:03:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:46:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:47:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:47:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:48:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:49:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:15:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:16:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:16:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:17:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:18:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:20:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:21:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:21:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:23:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:23:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:24:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:25:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:25:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:26:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:27:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:27:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:28:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:29:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:30:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:31:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:32:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:32:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:35:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:41:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:43:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:46:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:07:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:10:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:12:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:15:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:17:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:27:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:29:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:30:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:31:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:32:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:34:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:35:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:36:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:37:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:38:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:39:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:41:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:43:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 22:45:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:24:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:25:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:28:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:30:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:39:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:42:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:44:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:45:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 23:47:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 00:09:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 00:11:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 00:12:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 00:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 01:25:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 01:26:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 01:27:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 01:29:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 09 01:30:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:46:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:49:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:58:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:02:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:09:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:18:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:21:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:24:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:27:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:41:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:44:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:46:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:48:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:50:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 20:52:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:29:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:31:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:38:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:40:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:42:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:47:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:51:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:55:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 21:59:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:05:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:07:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:19:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:20:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:21:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:25:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:29:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:40:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:41:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:44:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:53:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:55:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:56:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 22:57:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:11:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:13:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:14:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:16:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:18:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:19:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:21:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:22:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:23:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:50:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:52:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:52:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 23:54:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:56:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:57:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:58:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:59:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:01:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:02:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:04:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:04:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:05:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:32:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:34:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:34:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:35:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:37:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:37:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:39:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:39:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:41:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:42:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:44:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:45:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:45:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:46:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:47:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:47:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:50:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:50:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:51:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 02:52:11 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +2323,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1872,7 +2424,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>597</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1973,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>598</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2074,7 +2626,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2314,7 +2866,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>600</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2418,7 +2970,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>601</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -2522,7 +3074,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -2626,7 +3178,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>603</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -2855,7 +3407,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2956,7 +3508,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3057,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3158,7 +3710,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3388,7 +3940,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3489,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3590,7 +4142,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>586</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3691,7 +4243,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3920,7 +4472,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4019,7 +4571,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4118,7 +4670,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4217,7 +4769,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>591</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4448,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4552,7 +5104,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4656,7 +5208,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4760,7 +5312,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5002,7 +5554,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>566</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -5109,7 +5661,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>567</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -5216,7 +5768,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>568</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -5320,10 +5872,10 @@
         <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>569</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -5430,7 +5982,7 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>570</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -5537,7 +6089,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>571</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -5776,7 +6328,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>572</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -5883,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -5990,7 +6542,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>422</v>
+        <v>574</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6097,7 +6649,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6204,7 +6756,7 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>576</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -6311,7 +6863,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>577</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -6543,7 +7095,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -6647,7 +7199,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -6751,7 +7303,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -6855,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6959,7 +7511,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -7063,7 +7615,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>583</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="696">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -1857,6 +1857,270 @@
   </si>
   <si>
     <t>Tue Aug 12 02:52:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:19:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:22:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:23:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:24:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:26:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:27:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:28:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:29:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:30:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:31:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:58:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:59:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:00:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:01:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:01:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:02:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:03:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:04:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:05:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:05:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:06:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:07:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:07:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:09:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:09:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:10:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:12:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:12:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:13:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:14:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:14:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:15:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:16:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:17:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:18:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:19:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:20:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:07:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:09:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:10:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:12:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:15:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:16:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:18:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:19:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:21:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:22:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:24:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:25:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:26:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:28:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:29:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:04:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:06:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:08:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:09:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:11:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:12:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:13:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:14:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:15:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:17:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:18:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:19:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:20:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:21:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:22:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:23:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:24:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:25:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:26:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:27:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:28:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:29:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:30:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:31:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Aug 23 00:32:14 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2587,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2424,7 +2688,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2525,7 +2789,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2626,7 +2890,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2860,13 +3124,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>688</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -2964,13 +3228,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>689</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3068,13 +3332,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>690</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3172,13 +3436,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>691</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3407,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>692</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3508,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3609,7 +3873,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3710,7 +3974,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>695</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3940,7 +4204,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4041,7 +4305,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4142,7 +4406,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4243,7 +4507,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4472,7 +4736,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4571,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4670,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4769,7 +5033,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5000,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5104,7 +5368,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5208,7 +5472,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5312,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5548,13 +5812,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -5655,13 +5919,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>655</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -5762,13 +6026,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>656</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -5869,13 +6133,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>657</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -5976,13 +6240,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>658</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -6083,13 +6347,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>659</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -6322,13 +6586,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>660</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6429,13 +6693,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>661</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -6536,13 +6800,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>662</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6643,13 +6907,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6750,13 +7014,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>664</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -6857,13 +7121,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>665</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -7095,7 +7359,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7199,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7303,7 +7567,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -7407,7 +7671,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -7511,7 +7775,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -7615,7 +7879,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="772">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -2121,6 +2121,234 @@
   </si>
   <si>
     <t>Sat Aug 23 00:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:57:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:58:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:59:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:01:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:02:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:03:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:05:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:06:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:08:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:09:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:11:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:46:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:47:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:48:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:49:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:50:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:51:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:52:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:53:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:54:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:56:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:56:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:58:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 23:59:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:00:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:02:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:03:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:04:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:04:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:05:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:07:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 00:09:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:57:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:58:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:59:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:01:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:02:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:03:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:05:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:06:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:07:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:08:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:09:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:10:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:41:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:42:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:44:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:44:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:45:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:46:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:47:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:48:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:49:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:49:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:50:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:51:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:52:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:54:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:54:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:56:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:57:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:58:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:59:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 08:59:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 09:00:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 09:01:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 09:02:15 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2815,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2688,7 +2916,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2789,7 +3017,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>686</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2890,7 +3118,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>687</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3124,7 +3352,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3228,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>689</v>
+        <v>765</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3332,7 +3560,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>690</v>
+        <v>766</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3436,7 +3664,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>767</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3671,7 +3899,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>692</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3772,7 +4000,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>693</v>
+        <v>769</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3873,7 +4101,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>694</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3974,7 +4202,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4204,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4305,7 +4533,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4406,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4507,7 +4735,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5264,7 +5492,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5368,7 +5596,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5472,7 +5700,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5576,7 +5804,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5812,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5919,7 +6147,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -6026,7 +6254,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -6133,7 +6361,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6240,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -6347,7 +6575,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6586,7 +6814,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -6693,7 +6921,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -6800,7 +7028,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -6907,7 +7135,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -7014,7 +7242,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -7121,7 +7349,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -7359,7 +7587,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7463,7 +7691,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7567,7 +7795,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -7671,7 +7899,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -7775,7 +8003,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -7879,7 +8107,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="810">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -2349,6 +2349,120 @@
   </si>
   <si>
     <t>Thu Aug 28 09:02:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:41:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:43:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:44:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:48:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:49:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:51:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:53:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:56:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:27:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:28:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:29:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:30:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:31:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:32:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:33:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:34:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:35:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:36:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:37:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:38:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:39:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:40:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:41:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:42:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:42:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:43:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:44:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:45:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:46:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:48:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:50:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 07:51:57 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2815,7 +2929,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>760</v>
+        <v>798</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2916,7 +3030,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3017,7 +3131,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>762</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3118,7 +3232,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3352,7 +3466,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3456,7 +3570,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3560,7 +3674,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3664,7 +3778,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>767</v>
+        <v>805</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3899,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4000,7 +4114,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>769</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4101,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4202,7 +4316,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>771</v>
+        <v>809</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4432,7 +4546,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>752</v>
+        <v>790</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4533,7 +4647,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>753</v>
+        <v>791</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4634,7 +4748,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>754</v>
+        <v>792</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4735,7 +4849,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5492,7 +5606,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>756</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5596,7 +5710,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>757</v>
+        <v>795</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5700,7 +5814,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>758</v>
+        <v>796</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5804,7 +5918,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6040,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>772</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -6147,7 +6261,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -6254,7 +6368,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>774</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -6361,7 +6475,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6468,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>776</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -6575,7 +6689,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6814,7 +6928,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>778</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -6921,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>779</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7028,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -7135,7 +7249,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -7242,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>782</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -7349,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>783</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -7587,7 +7701,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7691,7 +7805,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7795,7 +7909,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -7899,7 +8013,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -8003,7 +8117,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>750</v>
+        <v>788</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -8107,7 +8221,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>751</v>
+        <v>789</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="949">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -2463,6 +2463,423 @@
   </si>
   <si>
     <t>Thu Sep 04 07:51:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:45:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:46:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:47:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:48:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:50:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:51:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:52:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:53:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:54:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:55:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:58:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:27:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:28:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:29:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:30:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:31:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:32:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:33:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:34:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:34:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:35:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:36:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:37:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:38:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:39:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:40:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:41:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:43:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:44:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:49:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:50:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:51:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:53:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:54:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:55:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 23:56:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:23:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:25:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:26:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:27:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:29:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:33:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:35:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:39:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:43:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:46:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:47:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:49:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:29:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:31:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:32:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:33:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:34:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:36:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:38:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:40:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:42:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:43:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:14:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:16:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:16:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:17:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:18:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:20:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:21:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:22:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:23:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:23:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:24:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:25:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:26:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:27:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:28:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:29:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:29:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:32:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:34:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:35:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:45:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:46:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:47:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:50:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:52:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:54:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:56:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:57:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:58:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:59:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:02:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:03:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:04:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:06:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:38:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:40:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:42:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:43:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:44:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:45:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:46:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:47:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:49:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:50:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:51:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:52:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:53:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:53:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:54:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:55:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:57:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:58:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 17:59:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 18:00:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 18:01:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 18:02:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 18:03:56 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>937</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3030,7 +3447,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>799</v>
+        <v>938</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3131,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>800</v>
+        <v>939</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3232,7 +3649,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>801</v>
+        <v>940</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3466,13 +3883,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>802</v>
+        <v>941</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>642</v>
+        <v>842</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3570,13 +3987,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>803</v>
+        <v>942</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>843</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3674,13 +4091,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>804</v>
+        <v>943</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>644</v>
+        <v>844</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3778,13 +4195,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>805</v>
+        <v>944</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>845</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4013,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>945</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4114,7 +4531,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>807</v>
+        <v>946</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4215,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>808</v>
+        <v>947</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4316,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>809</v>
+        <v>948</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4546,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>790</v>
+        <v>929</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4647,7 +5064,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>791</v>
+        <v>930</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4748,7 +5165,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>792</v>
+        <v>931</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4849,7 +5266,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>932</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5078,7 +5495,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>630</v>
+        <v>832</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5177,7 +5594,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>833</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5276,7 +5693,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>632</v>
+        <v>834</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5375,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>633</v>
+        <v>835</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5606,7 +6023,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>933</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5710,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>795</v>
+        <v>934</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5814,7 +6231,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>796</v>
+        <v>935</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5918,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>797</v>
+        <v>936</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6154,13 +6571,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>772</v>
+        <v>905</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>810</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -6261,13 +6678,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>773</v>
+        <v>906</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -6368,13 +6785,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>774</v>
+        <v>907</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>812</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -6475,13 +6892,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>775</v>
+        <v>908</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>813</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -6582,13 +6999,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>776</v>
+        <v>909</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>612</v>
+        <v>814</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -6689,13 +7106,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>777</v>
+        <v>910</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>613</v>
+        <v>815</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -6928,13 +7345,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>778</v>
+        <v>917</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>850</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -7035,13 +7452,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>779</v>
+        <v>918</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -7142,13 +7559,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>780</v>
+        <v>919</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>616</v>
+        <v>852</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -7249,13 +7666,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>781</v>
+        <v>920</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>853</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -7356,13 +7773,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>782</v>
+        <v>921</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>854</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -7463,13 +7880,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>783</v>
+        <v>922</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>619</v>
+        <v>855</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -7701,7 +8118,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>923</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7805,7 +8222,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>785</v>
+        <v>924</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7909,7 +8326,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>786</v>
+        <v>925</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -8013,7 +8430,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>787</v>
+        <v>926</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -8117,7 +8534,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>927</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -8221,7 +8638,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>789</v>
+        <v>928</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>

--- a/KatalonData/Bootstrap/VT-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VT-Data-Prod.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5470" uniqueCount="1085">
   <si>
     <t>AppIDDemo</t>
   </si>
@@ -2880,6 +2880,414 @@
   </si>
   <si>
     <t>Mon Nov 10 18:03:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:03:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:04:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:06:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:07:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:08:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:10:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:11:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:12:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:13:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:14:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:16:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:17:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:49:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:50:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:50:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:51:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:52:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:53:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:54:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:56:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:58:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:59:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:00:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:01:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:02:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:03:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:04:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:05:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:05:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:08:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:08:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:10:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:11:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 09:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:36:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:38:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:39:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:40:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:43:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:47:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:49:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:50:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:51:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:26:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:27:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:28:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:29:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:30:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:31:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:32:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:33:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:34:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:35:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:36:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:37:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:38:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:39:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:40:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:41:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:42:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:43:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:44:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:45:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:47:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:48:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:49:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 16:50:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:36:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:40:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:41:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:42:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:44:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:46:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:47:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:49:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:50:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:53:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:40:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:41:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:42:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:45:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:46:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:47:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:48:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:49:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:49:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:50:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:51:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:52:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:54:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:55:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:56:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:57:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:58:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 20:59:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:01:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:02:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:03:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:05:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:06:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:07:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:08:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:14:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:16:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:17:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:18:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:20:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:06:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:07:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:08:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:09:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:11:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:12:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:16:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:17:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:18:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:21:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:22:55 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -3346,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>937</v>
+        <v>1055</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3447,7 +3855,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3548,7 +3956,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>1057</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3649,7 +4057,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>940</v>
+        <v>1058</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3883,13 +4291,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>1017</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>842</v>
+        <v>1059</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3987,13 +4395,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>942</v>
+        <v>1018</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>843</v>
+        <v>1060</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -4091,13 +4499,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>943</v>
+        <v>1019</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>844</v>
+        <v>1061</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -4195,13 +4603,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>944</v>
+        <v>1020</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>845</v>
+        <v>1062</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -4430,7 +4838,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>945</v>
+        <v>1063</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -4531,7 +4939,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>1064</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -4632,7 +5040,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>947</v>
+        <v>1065</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -4733,7 +5141,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
+        <v>1066</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4963,7 +5371,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>929</v>
+        <v>1043</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5064,7 +5472,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>930</v>
+        <v>1044</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5165,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>931</v>
+        <v>1045</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5266,7 +5674,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>932</v>
+        <v>1046</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5495,7 +5903,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>1047</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -5594,7 +6002,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>1048</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -5693,7 +6101,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>1049</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -5792,7 +6200,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>1050</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -6023,10 +6431,10 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>1051</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -6127,10 +6535,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>934</v>
+        <v>1052</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -6231,10 +6639,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>935</v>
+        <v>1053</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -6335,10 +6743,10 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>936</v>
+        <v>1054</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -6571,13 +6979,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>905</v>
+        <v>987</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>810</v>
+        <v>1079</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -6678,13 +7086,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>906</v>
+        <v>988</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>811</v>
+        <v>1080</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -6785,13 +7193,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>907</v>
+        <v>989</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>812</v>
+        <v>1081</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -6892,13 +7300,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>908</v>
+        <v>990</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>813</v>
+        <v>1082</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -6999,13 +7407,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>909</v>
+        <v>991</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>814</v>
+        <v>1083</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -7106,13 +7514,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>910</v>
+        <v>992</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>815</v>
+        <v>1084</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -7345,13 +7753,13 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>917</v>
+        <v>1067</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>850</v>
+        <v>1031</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -7452,13 +7860,13 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>918</v>
+        <v>1068</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>851</v>
+        <v>1032</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -7559,13 +7967,13 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>919</v>
+        <v>1069</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>1033</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -7666,13 +8074,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>920</v>
+        <v>1070</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -7773,13 +8181,13 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>921</v>
+        <v>1071</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>1035</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -7880,13 +8288,13 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>922</v>
+        <v>1072</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>1036</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -8118,7 +8526,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>923</v>
+        <v>1037</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -8222,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>924</v>
+        <v>1038</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -8326,7 +8734,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>925</v>
+        <v>1039</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -8430,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>926</v>
+        <v>1040</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -8534,7 +8942,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>927</v>
+        <v>1041</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -8638,7 +9046,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>928</v>
+        <v>1042</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
